--- a/Cross-Validation SVM/cross-validation template.xlsx
+++ b/Cross-Validation SVM/cross-validation template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DIT\MaxStaffForDIT\4thYear\FinalYearProject\Cross-Validation SVM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DIT\MaxStaffForDIT\4thYear\FinalYearProject\BehaviouralBiometricsPhoneLock\FYP\Cross-Validation SVM\2 - OnlyTapData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="Number_of_Obs">Sheet1!$J$2</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,9 +42,6 @@
   </si>
   <si>
     <t>zeros</t>
-  </si>
-  <si>
-    <t>30 train and 30 test data. Train and test data are the same</t>
   </si>
   <si>
     <r>
@@ -239,6 +239,9 @@
       <t xml:space="preserve"> ^ 4</t>
     </r>
   </si>
+  <si>
+    <t>Number of Obs:</t>
+  </si>
 </sst>
 </file>
 
@@ -276,7 +279,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -361,11 +364,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -383,6 +412,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,6 +429,320 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2828925" cy="3192412"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9153525" y="104775"/>
+          <a:ext cx="2828925" cy="3192412"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IE" sz="1100"/>
+            <a:t>Notes:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IE" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Observation</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> features (in this order):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1. x start point</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2. y start point</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3. x end point </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IE" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IE" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4. y end point</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IE" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>5. touch duration </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IE" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>6. finger Area </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IE" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>7. last Linear Acceleration</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IE" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>8. Linear Acceleration (current)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IE" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>9.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> last Angular Velocity</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>10. Angular Velocity (current)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IE" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IE" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IE" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- 30 train and 30 test observations</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> used</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IE" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>. Train and test data are the same</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IE" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IE" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IE" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -663,10 +1008,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K99"/>
+  <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -679,7 +1024,7 @@
     <col min="11" max="11" width="52.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5">
+    <row r="1" spans="1:10" ht="17.25" thickTop="1">
       <c r="A1" s="16"/>
       <c r="B1" s="13" t="s">
         <v>0</v>
@@ -696,10 +1041,13 @@
       <c r="G1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="J1" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="5">
         <f>1/(POWER(2,1))</f>
@@ -718,14 +1066,14 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <f>SUM(30-F2)</f>
-        <v>30</v>
-      </c>
-      <c r="K2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <f>SUM(Number_of_Obs-F2)</f>
+        <v>30</v>
+      </c>
+      <c r="J2" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" thickTop="1">
       <c r="B3" s="6">
         <f t="shared" ref="B3:B8" si="0">1/(POWER(2,1))</f>
         <v>0.5</v>
@@ -743,11 +1091,11 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G66" si="1">SUM(30-F3)</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <f>SUM(Number_of_Obs-F3)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="B4" s="6">
         <f t="shared" si="0"/>
         <v>0.5</v>
@@ -757,7 +1105,7 @@
         <v>7.8125E-3</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D8" si="2">(F4*100)/30</f>
+        <f t="shared" ref="D4:D8" si="1">(F4*100)/30</f>
         <v>0</v>
       </c>
       <c r="E4" s="15"/>
@@ -765,11 +1113,11 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <f>SUM(Number_of_Obs-F4)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="B5" s="6">
         <f t="shared" si="0"/>
         <v>0.5</v>
@@ -779,7 +1127,7 @@
         <v>3.90625E-3</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E5" s="15"/>
@@ -787,11 +1135,11 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <f>SUM(Number_of_Obs-F5)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="B6" s="6">
         <f t="shared" si="0"/>
         <v>0.5</v>
@@ -801,7 +1149,7 @@
         <v>1.953125E-3</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E6" s="15"/>
@@ -809,11 +1157,11 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <f>SUM(Number_of_Obs-F6)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="B7" s="6">
         <f t="shared" si="0"/>
         <v>0.5</v>
@@ -823,7 +1171,7 @@
         <v>9.765625E-4</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E7" s="15"/>
@@ -831,11 +1179,11 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <f>SUM(Number_of_Obs-F7)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="16"/>
       <c r="B8" s="7">
         <f t="shared" si="0"/>
@@ -846,7 +1194,7 @@
         <v>4.8828125E-4</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E8" s="15"/>
@@ -854,13 +1202,13 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <f>SUM(Number_of_Obs-F8)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="5">
         <f>1/(POWER(2,2))</f>
@@ -879,13 +1227,13 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <f>SUM(Number_of_Obs-F9)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="B10" s="6">
-        <f t="shared" ref="B10:B11" si="3">1/(POWER(2,2))</f>
+        <f t="shared" ref="B10:B11" si="2">1/(POWER(2,2))</f>
         <v>0.25</v>
       </c>
       <c r="C10" s="10">
@@ -893,7 +1241,7 @@
         <v>1.5625E-2</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" ref="D10:D73" si="4">(F10*100)/30</f>
+        <f t="shared" ref="D10:D73" si="3">(F10*100)/30</f>
         <v>0</v>
       </c>
       <c r="E10" s="15"/>
@@ -901,13 +1249,13 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <f>SUM(Number_of_Obs-F10)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="B11" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
       <c r="C11" s="10">
@@ -915,7 +1263,7 @@
         <v>7.8125E-3</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E11" s="15"/>
@@ -923,13 +1271,13 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <f>SUM(Number_of_Obs-F11)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="B12" s="6">
-        <f t="shared" ref="B12:B15" si="5">1/(POWER(2,2))</f>
+        <f t="shared" ref="B12:B15" si="4">1/(POWER(2,2))</f>
         <v>0.25</v>
       </c>
       <c r="C12" s="10">
@@ -937,7 +1285,7 @@
         <v>3.90625E-3</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E12" s="15"/>
@@ -945,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <f>SUM(Number_of_Obs-F12)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="B13" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
       <c r="C13" s="10">
@@ -959,7 +1307,7 @@
         <v>1.953125E-3</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E13" s="15"/>
@@ -967,13 +1315,13 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <f>SUM(Number_of_Obs-F13)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="B14" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
       <c r="C14" s="10">
@@ -981,7 +1329,7 @@
         <v>9.765625E-4</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E14" s="15"/>
@@ -989,14 +1337,14 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <f>SUM(Number_of_Obs-F14)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="16"/>
       <c r="B15" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
       <c r="C15" s="11">
@@ -1004,7 +1352,7 @@
         <v>4.8828125E-4</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E15" s="15"/>
@@ -1012,13 +1360,13 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <f>SUM(Number_of_Obs-F15)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" s="5">
         <f>1/(POWER(2,3))</f>
@@ -1029,7 +1377,7 @@
         <v>3.125E-2</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E16" s="15"/>
@@ -1037,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <f t="shared" si="1"/>
+        <f>SUM(Number_of_Obs-F16)</f>
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="B17" s="6">
-        <f t="shared" ref="B17:B22" si="6">1/(POWER(2,3))</f>
+        <f t="shared" ref="B17:B22" si="5">1/(POWER(2,3))</f>
         <v>0.125</v>
       </c>
       <c r="C17" s="10">
@@ -1051,7 +1399,7 @@
         <v>1.5625E-2</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E17" s="15"/>
@@ -1059,13 +1407,13 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <f t="shared" si="1"/>
+        <f>SUM(Number_of_Obs-F17)</f>
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="B18" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.125</v>
       </c>
       <c r="C18" s="10">
@@ -1073,7 +1421,7 @@
         <v>7.8125E-3</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E18" s="15"/>
@@ -1081,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <f t="shared" si="1"/>
+        <f>SUM(Number_of_Obs-F18)</f>
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="B19" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.125</v>
       </c>
       <c r="C19" s="10">
@@ -1095,7 +1443,7 @@
         <v>3.90625E-3</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E19" s="15"/>
@@ -1103,13 +1451,13 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <f t="shared" si="1"/>
+        <f>SUM(Number_of_Obs-F19)</f>
         <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="B20" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.125</v>
       </c>
       <c r="C20" s="10">
@@ -1117,7 +1465,7 @@
         <v>1.953125E-3</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E20" s="15"/>
@@ -1125,13 +1473,13 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <f t="shared" si="1"/>
+        <f>SUM(Number_of_Obs-F20)</f>
         <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="B21" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.125</v>
       </c>
       <c r="C21" s="10">
@@ -1139,7 +1487,7 @@
         <v>9.765625E-4</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E21" s="15"/>
@@ -1147,14 +1495,14 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <f t="shared" si="1"/>
+        <f>SUM(Number_of_Obs-F21)</f>
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="16"/>
       <c r="B22" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.125</v>
       </c>
       <c r="C22" s="11">
@@ -1162,7 +1510,7 @@
         <v>4.8828125E-4</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E22" s="15"/>
@@ -1170,13 +1518,13 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <f t="shared" si="1"/>
+        <f>SUM(Number_of_Obs-F22)</f>
         <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23" s="5">
         <f>1/(POWER(2,4))</f>
@@ -1187,7 +1535,7 @@
         <v>3.125E-2</v>
       </c>
       <c r="D23" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E23" s="15"/>
@@ -1195,13 +1543,13 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <f t="shared" si="1"/>
+        <f>SUM(Number_of_Obs-F23)</f>
         <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="B24" s="6">
-        <f t="shared" ref="B24:B29" si="7">1/(POWER(2,4))</f>
+        <f t="shared" ref="B24:B29" si="6">1/(POWER(2,4))</f>
         <v>6.25E-2</v>
       </c>
       <c r="C24" s="10">
@@ -1209,7 +1557,7 @@
         <v>1.5625E-2</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E24" s="15"/>
@@ -1217,13 +1565,13 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <f t="shared" si="1"/>
+        <f>SUM(Number_of_Obs-F24)</f>
         <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="B25" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>6.25E-2</v>
       </c>
       <c r="C25" s="10">
@@ -1231,7 +1579,7 @@
         <v>7.8125E-3</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E25" s="15"/>
@@ -1239,13 +1587,13 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <f t="shared" si="1"/>
+        <f>SUM(Number_of_Obs-F25)</f>
         <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="B26" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>6.25E-2</v>
       </c>
       <c r="C26" s="10">
@@ -1253,7 +1601,7 @@
         <v>3.90625E-3</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E26" s="15"/>
@@ -1261,13 +1609,13 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <f t="shared" si="1"/>
+        <f>SUM(Number_of_Obs-F26)</f>
         <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="B27" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>6.25E-2</v>
       </c>
       <c r="C27" s="10">
@@ -1275,7 +1623,7 @@
         <v>1.953125E-3</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E27" s="15"/>
@@ -1283,13 +1631,13 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <f t="shared" si="1"/>
+        <f>SUM(Number_of_Obs-F27)</f>
         <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="B28" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>6.25E-2</v>
       </c>
       <c r="C28" s="10">
@@ -1297,7 +1645,7 @@
         <v>9.765625E-4</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E28" s="15"/>
@@ -1305,14 +1653,14 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <f t="shared" si="1"/>
+        <f>SUM(Number_of_Obs-F28)</f>
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="16"/>
       <c r="B29" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>6.25E-2</v>
       </c>
       <c r="C29" s="11">
@@ -1320,7 +1668,7 @@
         <v>4.8828125E-4</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E29" s="15"/>
@@ -1328,13 +1676,13 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <f t="shared" si="1"/>
+        <f>SUM(Number_of_Obs-F29)</f>
         <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B30" s="5">
         <f>1/(POWER(2,5))</f>
@@ -1345,7 +1693,7 @@
         <v>3.125E-2</v>
       </c>
       <c r="D30" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E30" s="15"/>
@@ -1353,13 +1701,13 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <f t="shared" si="1"/>
+        <f>SUM(Number_of_Obs-F30)</f>
         <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="B31" s="6">
-        <f t="shared" ref="B31:B36" si="8">1/(POWER(2,5))</f>
+        <f t="shared" ref="B31:B36" si="7">1/(POWER(2,5))</f>
         <v>3.125E-2</v>
       </c>
       <c r="C31" s="10">
@@ -1367,7 +1715,7 @@
         <v>1.5625E-2</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E31" s="15"/>
@@ -1375,13 +1723,13 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <f t="shared" si="1"/>
+        <f>SUM(Number_of_Obs-F31)</f>
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="B32" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3.125E-2</v>
       </c>
       <c r="C32" s="10">
@@ -1389,7 +1737,7 @@
         <v>7.8125E-3</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E32" s="15"/>
@@ -1397,13 +1745,13 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <f t="shared" si="1"/>
+        <f>SUM(Number_of_Obs-F32)</f>
         <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="B33" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3.125E-2</v>
       </c>
       <c r="C33" s="10">
@@ -1411,7 +1759,7 @@
         <v>3.90625E-3</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E33" s="15"/>
@@ -1419,13 +1767,13 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <f t="shared" si="1"/>
+        <f>SUM(Number_of_Obs-F33)</f>
         <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="B34" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3.125E-2</v>
       </c>
       <c r="C34" s="10">
@@ -1433,7 +1781,7 @@
         <v>1.953125E-3</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E34" s="15"/>
@@ -1441,13 +1789,13 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <f t="shared" si="1"/>
+        <f>SUM(Number_of_Obs-F34)</f>
         <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="B35" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3.125E-2</v>
       </c>
       <c r="C35" s="10">
@@ -1455,7 +1803,7 @@
         <v>9.765625E-4</v>
       </c>
       <c r="D35" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E35" s="15"/>
@@ -1463,14 +1811,14 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <f t="shared" si="1"/>
+        <f>SUM(Number_of_Obs-F35)</f>
         <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="16"/>
       <c r="B36" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3.125E-2</v>
       </c>
       <c r="C36" s="11">
@@ -1478,7 +1826,7 @@
         <v>4.8828125E-4</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E36" s="15"/>
@@ -1486,13 +1834,13 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <f t="shared" si="1"/>
+        <f>SUM(Number_of_Obs-F36)</f>
         <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B37" s="5">
         <f>1/(POWER(2,6))</f>
@@ -1503,7 +1851,7 @@
         <v>3.125E-2</v>
       </c>
       <c r="D37" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E37" s="15"/>
@@ -1511,13 +1859,13 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <f t="shared" si="1"/>
+        <f>SUM(Number_of_Obs-F37)</f>
         <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="B38" s="6">
-        <f t="shared" ref="B38:B43" si="9">1/(POWER(2,6))</f>
+        <f t="shared" ref="B38:B43" si="8">1/(POWER(2,6))</f>
         <v>1.5625E-2</v>
       </c>
       <c r="C38" s="10">
@@ -1525,7 +1873,7 @@
         <v>1.5625E-2</v>
       </c>
       <c r="D38" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E38" s="15"/>
@@ -1533,13 +1881,13 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <f t="shared" si="1"/>
+        <f>SUM(Number_of_Obs-F38)</f>
         <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="B39" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.5625E-2</v>
       </c>
       <c r="C39" s="10">
@@ -1547,7 +1895,7 @@
         <v>7.8125E-3</v>
       </c>
       <c r="D39" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E39" s="15"/>
@@ -1555,13 +1903,13 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <f t="shared" si="1"/>
+        <f>SUM(Number_of_Obs-F39)</f>
         <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="B40" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.5625E-2</v>
       </c>
       <c r="C40" s="10">
@@ -1569,7 +1917,7 @@
         <v>3.90625E-3</v>
       </c>
       <c r="D40" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E40" s="15"/>
@@ -1577,13 +1925,13 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <f t="shared" si="1"/>
+        <f>SUM(Number_of_Obs-F40)</f>
         <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="B41" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.5625E-2</v>
       </c>
       <c r="C41" s="10">
@@ -1591,7 +1939,7 @@
         <v>1.953125E-3</v>
       </c>
       <c r="D41" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E41" s="15"/>
@@ -1599,13 +1947,13 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <f t="shared" si="1"/>
+        <f>SUM(Number_of_Obs-F41)</f>
         <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="B42" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.5625E-2</v>
       </c>
       <c r="C42" s="10">
@@ -1613,7 +1961,7 @@
         <v>9.765625E-4</v>
       </c>
       <c r="D42" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E42" s="15"/>
@@ -1621,14 +1969,14 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <f t="shared" si="1"/>
+        <f>SUM(Number_of_Obs-F42)</f>
         <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="16"/>
       <c r="B43" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.5625E-2</v>
       </c>
       <c r="C43" s="11">
@@ -1636,7 +1984,7 @@
         <v>4.8828125E-4</v>
       </c>
       <c r="D43" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E43" s="15"/>
@@ -1644,13 +1992,13 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <f t="shared" si="1"/>
+        <f>SUM(Number_of_Obs-F43)</f>
         <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B44" s="5">
         <f>1/(POWER(2,7))</f>
@@ -1661,7 +2009,7 @@
         <v>3.125E-2</v>
       </c>
       <c r="D44" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E44" s="15"/>
@@ -1669,13 +2017,13 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <f t="shared" si="1"/>
+        <f>SUM(Number_of_Obs-F44)</f>
         <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="B45" s="6">
-        <f t="shared" ref="B45:B50" si="10">1/(POWER(2,7))</f>
+        <f t="shared" ref="B45:B50" si="9">1/(POWER(2,7))</f>
         <v>7.8125E-3</v>
       </c>
       <c r="C45" s="10">
@@ -1683,7 +2031,7 @@
         <v>1.5625E-2</v>
       </c>
       <c r="D45" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E45" s="15"/>
@@ -1691,13 +2039,13 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <f t="shared" si="1"/>
+        <f>SUM(Number_of_Obs-F45)</f>
         <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="B46" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>7.8125E-3</v>
       </c>
       <c r="C46" s="10">
@@ -1705,7 +2053,7 @@
         <v>7.8125E-3</v>
       </c>
       <c r="D46" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E46" s="15"/>
@@ -1713,13 +2061,13 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <f t="shared" si="1"/>
+        <f>SUM(Number_of_Obs-F46)</f>
         <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="B47" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>7.8125E-3</v>
       </c>
       <c r="C47" s="10">
@@ -1727,7 +2075,7 @@
         <v>3.90625E-3</v>
       </c>
       <c r="D47" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E47" s="15"/>
@@ -1735,13 +2083,13 @@
         <v>0</v>
       </c>
       <c r="G47">
-        <f t="shared" si="1"/>
+        <f>SUM(Number_of_Obs-F47)</f>
         <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="B48" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>7.8125E-3</v>
       </c>
       <c r="C48" s="10">
@@ -1749,7 +2097,7 @@
         <v>1.953125E-3</v>
       </c>
       <c r="D48" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E48" s="15"/>
@@ -1757,13 +2105,13 @@
         <v>0</v>
       </c>
       <c r="G48">
-        <f t="shared" si="1"/>
+        <f>SUM(Number_of_Obs-F48)</f>
         <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="B49" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>7.8125E-3</v>
       </c>
       <c r="C49" s="10">
@@ -1771,7 +2119,7 @@
         <v>9.765625E-4</v>
       </c>
       <c r="D49" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E49" s="15"/>
@@ -1779,14 +2127,14 @@
         <v>0</v>
       </c>
       <c r="G49">
-        <f t="shared" si="1"/>
+        <f>SUM(Number_of_Obs-F49)</f>
         <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="16"/>
       <c r="B50" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>7.8125E-3</v>
       </c>
       <c r="C50" s="11">
@@ -1794,7 +2142,7 @@
         <v>4.8828125E-4</v>
       </c>
       <c r="D50" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E50" s="15"/>
@@ -1802,13 +2150,13 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <f t="shared" si="1"/>
+        <f>SUM(Number_of_Obs-F50)</f>
         <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="14.25" customHeight="1">
       <c r="A51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B51" s="5">
         <f>1/(POWER(2,8))</f>
@@ -1819,7 +2167,7 @@
         <v>3.125E-2</v>
       </c>
       <c r="D51" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E51" s="15"/>
@@ -1827,13 +2175,13 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <f t="shared" si="1"/>
+        <f>SUM(Number_of_Obs-F51)</f>
         <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="14.25" customHeight="1">
       <c r="B52" s="6">
-        <f t="shared" ref="B52:B53" si="11">1/(POWER(2,8))</f>
+        <f t="shared" ref="B52:B53" si="10">1/(POWER(2,8))</f>
         <v>3.90625E-3</v>
       </c>
       <c r="C52" s="10">
@@ -1841,7 +2189,7 @@
         <v>1.5625E-2</v>
       </c>
       <c r="D52" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E52" s="15"/>
@@ -1849,13 +2197,13 @@
         <v>0</v>
       </c>
       <c r="G52">
-        <f t="shared" si="1"/>
+        <f>SUM(Number_of_Obs-F52)</f>
         <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="14.25" customHeight="1">
       <c r="B53" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3.90625E-3</v>
       </c>
       <c r="C53" s="10">
@@ -1863,7 +2211,7 @@
         <v>7.8125E-3</v>
       </c>
       <c r="D53" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E53" s="15"/>
@@ -1871,13 +2219,13 @@
         <v>0</v>
       </c>
       <c r="G53">
-        <f t="shared" si="1"/>
+        <f>SUM(Number_of_Obs-F53)</f>
         <v>30</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="14.25" customHeight="1">
       <c r="B54" s="6">
-        <f t="shared" ref="B54:B57" si="12">1/(POWER(2,8))</f>
+        <f t="shared" ref="B54:B57" si="11">1/(POWER(2,8))</f>
         <v>3.90625E-3</v>
       </c>
       <c r="C54" s="10">
@@ -1885,7 +2233,7 @@
         <v>3.90625E-3</v>
       </c>
       <c r="D54" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E54" s="15"/>
@@ -1893,13 +2241,13 @@
         <v>0</v>
       </c>
       <c r="G54">
-        <f t="shared" si="1"/>
+        <f>SUM(Number_of_Obs-F54)</f>
         <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="14.25" customHeight="1">
       <c r="B55" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>3.90625E-3</v>
       </c>
       <c r="C55" s="10">
@@ -1907,7 +2255,7 @@
         <v>1.953125E-3</v>
       </c>
       <c r="D55" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E55" s="15"/>
@@ -1915,13 +2263,13 @@
         <v>0</v>
       </c>
       <c r="G55">
-        <f t="shared" si="1"/>
+        <f>SUM(Number_of_Obs-F55)</f>
         <v>30</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="14.25" customHeight="1">
       <c r="B56" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>3.90625E-3</v>
       </c>
       <c r="C56" s="10">
@@ -1929,7 +2277,7 @@
         <v>9.765625E-4</v>
       </c>
       <c r="D56" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E56" s="15"/>
@@ -1937,14 +2285,14 @@
         <v>0</v>
       </c>
       <c r="G56">
-        <f t="shared" si="1"/>
+        <f>SUM(Number_of_Obs-F56)</f>
         <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="14.25" customHeight="1">
       <c r="A57" s="16"/>
       <c r="B57" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>3.90625E-3</v>
       </c>
       <c r="C57" s="11">
@@ -1952,7 +2300,7 @@
         <v>4.8828125E-4</v>
       </c>
       <c r="D57" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E57" s="15"/>
@@ -1960,13 +2308,13 @@
         <v>0</v>
       </c>
       <c r="G57">
-        <f t="shared" si="1"/>
+        <f>SUM(Number_of_Obs-F57)</f>
         <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B58" s="5">
         <f>1/(POWER(2,9))</f>
@@ -1977,7 +2325,7 @@
         <v>3.125E-2</v>
       </c>
       <c r="D58" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E58" s="15"/>
@@ -1985,13 +2333,13 @@
         <v>0</v>
       </c>
       <c r="G58">
-        <f t="shared" si="1"/>
+        <f>SUM(Number_of_Obs-F58)</f>
         <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="B59" s="6">
-        <f t="shared" ref="B59:B64" si="13">1/(POWER(2,9))</f>
+        <f t="shared" ref="B59:B64" si="12">1/(POWER(2,9))</f>
         <v>1.953125E-3</v>
       </c>
       <c r="C59" s="10">
@@ -1999,7 +2347,7 @@
         <v>1.5625E-2</v>
       </c>
       <c r="D59" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E59" s="15"/>
@@ -2007,13 +2355,13 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <f t="shared" si="1"/>
+        <f>SUM(Number_of_Obs-F59)</f>
         <v>30</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="B60" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.953125E-3</v>
       </c>
       <c r="C60" s="10">
@@ -2021,7 +2369,7 @@
         <v>7.8125E-3</v>
       </c>
       <c r="D60" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E60" s="15"/>
@@ -2029,13 +2377,13 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <f t="shared" si="1"/>
+        <f>SUM(Number_of_Obs-F60)</f>
         <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="B61" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.953125E-3</v>
       </c>
       <c r="C61" s="10">
@@ -2043,7 +2391,7 @@
         <v>3.90625E-3</v>
       </c>
       <c r="D61" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E61" s="15"/>
@@ -2051,13 +2399,13 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <f t="shared" si="1"/>
+        <f>SUM(Number_of_Obs-F61)</f>
         <v>30</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="B62" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.953125E-3</v>
       </c>
       <c r="C62" s="10">
@@ -2065,7 +2413,7 @@
         <v>1.953125E-3</v>
       </c>
       <c r="D62" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E62" s="15"/>
@@ -2073,13 +2421,13 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <f t="shared" si="1"/>
+        <f>SUM(Number_of_Obs-F62)</f>
         <v>30</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="B63" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.953125E-3</v>
       </c>
       <c r="C63" s="10">
@@ -2087,7 +2435,7 @@
         <v>9.765625E-4</v>
       </c>
       <c r="D63" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E63" s="15"/>
@@ -2095,14 +2443,14 @@
         <v>0</v>
       </c>
       <c r="G63">
-        <f t="shared" si="1"/>
+        <f>SUM(Number_of_Obs-F63)</f>
         <v>30</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="16"/>
       <c r="B64" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.953125E-3</v>
       </c>
       <c r="C64" s="11">
@@ -2110,7 +2458,7 @@
         <v>4.8828125E-4</v>
       </c>
       <c r="D64" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E64" s="15"/>
@@ -2118,13 +2466,13 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <f t="shared" si="1"/>
+        <f>SUM(Number_of_Obs-F64)</f>
         <v>30</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B65" s="5">
         <f>1/(POWER(2,10))</f>
@@ -2135,7 +2483,7 @@
         <v>3.125E-2</v>
       </c>
       <c r="D65" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E65" s="15"/>
@@ -2143,13 +2491,13 @@
         <v>0</v>
       </c>
       <c r="G65">
-        <f t="shared" si="1"/>
+        <f>SUM(Number_of_Obs-F65)</f>
         <v>30</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="B66" s="6">
-        <f t="shared" ref="B66:B71" si="14">1/(POWER(2,10))</f>
+        <f t="shared" ref="B66:B71" si="13">1/(POWER(2,10))</f>
         <v>9.765625E-4</v>
       </c>
       <c r="C66" s="10">
@@ -2157,7 +2505,7 @@
         <v>1.5625E-2</v>
       </c>
       <c r="D66" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E66" s="15"/>
@@ -2165,13 +2513,13 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <f t="shared" si="1"/>
+        <f>SUM(Number_of_Obs-F66)</f>
         <v>30</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="B67" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>9.765625E-4</v>
       </c>
       <c r="C67" s="10">
@@ -2179,7 +2527,7 @@
         <v>7.8125E-3</v>
       </c>
       <c r="D67" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E67" s="15"/>
@@ -2187,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G99" si="15">SUM(30-F67)</f>
+        <f>SUM(Number_of_Obs-F67)</f>
         <v>30</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="B68" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>9.765625E-4</v>
       </c>
       <c r="C68" s="10">
@@ -2201,7 +2549,7 @@
         <v>3.90625E-3</v>
       </c>
       <c r="D68" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E68" s="15"/>
@@ -2209,13 +2557,13 @@
         <v>0</v>
       </c>
       <c r="G68">
-        <f t="shared" si="15"/>
+        <f>SUM(Number_of_Obs-F68)</f>
         <v>30</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="B69" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>9.765625E-4</v>
       </c>
       <c r="C69" s="10">
@@ -2223,7 +2571,7 @@
         <v>1.953125E-3</v>
       </c>
       <c r="D69" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E69" s="15"/>
@@ -2231,13 +2579,13 @@
         <v>0</v>
       </c>
       <c r="G69">
-        <f t="shared" si="15"/>
+        <f>SUM(Number_of_Obs-F69)</f>
         <v>30</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="B70" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>9.765625E-4</v>
       </c>
       <c r="C70" s="10">
@@ -2245,7 +2593,7 @@
         <v>9.765625E-4</v>
       </c>
       <c r="D70" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E70" s="15"/>
@@ -2253,14 +2601,14 @@
         <v>0</v>
       </c>
       <c r="G70">
-        <f t="shared" si="15"/>
+        <f>SUM(Number_of_Obs-F70)</f>
         <v>30</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="16"/>
       <c r="B71" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>9.765625E-4</v>
       </c>
       <c r="C71" s="11">
@@ -2268,7 +2616,7 @@
         <v>4.8828125E-4</v>
       </c>
       <c r="D71" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E71" s="15"/>
@@ -2276,13 +2624,13 @@
         <v>0</v>
       </c>
       <c r="G71">
-        <f t="shared" si="15"/>
+        <f>SUM(Number_of_Obs-F71)</f>
         <v>30</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B72" s="5">
         <f>1/(POWER(2,11))</f>
@@ -2293,7 +2641,7 @@
         <v>3.125E-2</v>
       </c>
       <c r="D72" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E72" s="15"/>
@@ -2301,13 +2649,13 @@
         <v>0</v>
       </c>
       <c r="G72">
-        <f t="shared" si="15"/>
+        <f>SUM(Number_of_Obs-F72)</f>
         <v>30</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="B73" s="6">
-        <f t="shared" ref="B73:B78" si="16">1/(POWER(2,11))</f>
+        <f t="shared" ref="B73:B78" si="14">1/(POWER(2,11))</f>
         <v>4.8828125E-4</v>
       </c>
       <c r="C73" s="10">
@@ -2315,7 +2663,7 @@
         <v>1.5625E-2</v>
       </c>
       <c r="D73" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E73" s="15"/>
@@ -2323,13 +2671,13 @@
         <v>0</v>
       </c>
       <c r="G73">
-        <f t="shared" si="15"/>
+        <f>SUM(Number_of_Obs-F73)</f>
         <v>30</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="B74" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>4.8828125E-4</v>
       </c>
       <c r="C74" s="10">
@@ -2337,7 +2685,7 @@
         <v>7.8125E-3</v>
       </c>
       <c r="D74" s="2">
-        <f t="shared" ref="D74:D99" si="17">(F74*100)/30</f>
+        <f t="shared" ref="D74:D99" si="15">(F74*100)/30</f>
         <v>0</v>
       </c>
       <c r="E74" s="15"/>
@@ -2345,13 +2693,13 @@
         <v>0</v>
       </c>
       <c r="G74">
-        <f t="shared" si="15"/>
+        <f>SUM(Number_of_Obs-F74)</f>
         <v>30</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="B75" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>4.8828125E-4</v>
       </c>
       <c r="C75" s="10">
@@ -2359,7 +2707,7 @@
         <v>3.90625E-3</v>
       </c>
       <c r="D75" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E75" s="15"/>
@@ -2367,13 +2715,13 @@
         <v>0</v>
       </c>
       <c r="G75">
-        <f t="shared" si="15"/>
+        <f>SUM(Number_of_Obs-F75)</f>
         <v>30</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="B76" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>4.8828125E-4</v>
       </c>
       <c r="C76" s="10">
@@ -2381,7 +2729,7 @@
         <v>1.953125E-3</v>
       </c>
       <c r="D76" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E76" s="15"/>
@@ -2389,13 +2737,13 @@
         <v>0</v>
       </c>
       <c r="G76">
-        <f t="shared" si="15"/>
+        <f>SUM(Number_of_Obs-F76)</f>
         <v>30</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="B77" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>4.8828125E-4</v>
       </c>
       <c r="C77" s="10">
@@ -2403,7 +2751,7 @@
         <v>9.765625E-4</v>
       </c>
       <c r="D77" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E77" s="15"/>
@@ -2411,14 +2759,14 @@
         <v>0</v>
       </c>
       <c r="G77">
-        <f t="shared" si="15"/>
+        <f>SUM(Number_of_Obs-F77)</f>
         <v>30</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="16"/>
       <c r="B78" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>4.8828125E-4</v>
       </c>
       <c r="C78" s="11">
@@ -2426,7 +2774,7 @@
         <v>4.8828125E-4</v>
       </c>
       <c r="D78" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E78" s="15"/>
@@ -2434,13 +2782,13 @@
         <v>0</v>
       </c>
       <c r="G78">
-        <f t="shared" si="15"/>
+        <f>SUM(Number_of_Obs-F78)</f>
         <v>30</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B79" s="5">
         <f>1/(POWER(2,12))</f>
@@ -2451,7 +2799,7 @@
         <v>3.125E-2</v>
       </c>
       <c r="D79" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E79" s="15"/>
@@ -2459,13 +2807,13 @@
         <v>0</v>
       </c>
       <c r="G79">
-        <f t="shared" si="15"/>
+        <f>SUM(Number_of_Obs-F79)</f>
         <v>30</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="B80" s="6">
-        <f t="shared" ref="B80:B85" si="18">1/(POWER(2,12))</f>
+        <f t="shared" ref="B80:B85" si="16">1/(POWER(2,12))</f>
         <v>2.44140625E-4</v>
       </c>
       <c r="C80" s="10">
@@ -2473,7 +2821,7 @@
         <v>1.5625E-2</v>
       </c>
       <c r="D80" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E80" s="15"/>
@@ -2481,13 +2829,13 @@
         <v>0</v>
       </c>
       <c r="G80">
-        <f t="shared" si="15"/>
+        <f>SUM(Number_of_Obs-F80)</f>
         <v>30</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="B81" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>2.44140625E-4</v>
       </c>
       <c r="C81" s="10">
@@ -2495,7 +2843,7 @@
         <v>7.8125E-3</v>
       </c>
       <c r="D81" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E81" s="15"/>
@@ -2503,13 +2851,13 @@
         <v>0</v>
       </c>
       <c r="G81">
-        <f t="shared" si="15"/>
+        <f>SUM(Number_of_Obs-F81)</f>
         <v>30</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="B82" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>2.44140625E-4</v>
       </c>
       <c r="C82" s="10">
@@ -2517,7 +2865,7 @@
         <v>3.90625E-3</v>
       </c>
       <c r="D82" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E82" s="15"/>
@@ -2525,13 +2873,13 @@
         <v>0</v>
       </c>
       <c r="G82">
-        <f t="shared" si="15"/>
+        <f>SUM(Number_of_Obs-F82)</f>
         <v>30</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="B83" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>2.44140625E-4</v>
       </c>
       <c r="C83" s="10">
@@ -2539,7 +2887,7 @@
         <v>1.953125E-3</v>
       </c>
       <c r="D83" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E83" s="15"/>
@@ -2547,13 +2895,13 @@
         <v>0</v>
       </c>
       <c r="G83">
-        <f t="shared" si="15"/>
+        <f>SUM(Number_of_Obs-F83)</f>
         <v>30</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="B84" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>2.44140625E-4</v>
       </c>
       <c r="C84" s="10">
@@ -2561,7 +2909,7 @@
         <v>9.765625E-4</v>
       </c>
       <c r="D84" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E84" s="15"/>
@@ -2569,14 +2917,14 @@
         <v>0</v>
       </c>
       <c r="G84">
-        <f t="shared" si="15"/>
+        <f>SUM(Number_of_Obs-F84)</f>
         <v>30</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="16"/>
       <c r="B85" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>2.44140625E-4</v>
       </c>
       <c r="C85" s="11">
@@ -2584,7 +2932,7 @@
         <v>4.8828125E-4</v>
       </c>
       <c r="D85" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E85" s="15"/>
@@ -2592,13 +2940,13 @@
         <v>0</v>
       </c>
       <c r="G85">
-        <f t="shared" si="15"/>
+        <f>SUM(Number_of_Obs-F85)</f>
         <v>30</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B86" s="5">
         <f>1/(POWER(2,12.5))</f>
@@ -2609,7 +2957,7 @@
         <v>3.125E-2</v>
       </c>
       <c r="D86" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E86" s="15"/>
@@ -2617,13 +2965,13 @@
         <v>0</v>
       </c>
       <c r="G86">
-        <f t="shared" si="15"/>
+        <f>SUM(Number_of_Obs-F86)</f>
         <v>30</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="B87" s="6">
-        <f t="shared" ref="B87:B92" si="19">1/(POWER(2,12.5))</f>
+        <f t="shared" ref="B87:B92" si="17">1/(POWER(2,12.5))</f>
         <v>1.7263349150062191E-4</v>
       </c>
       <c r="C87" s="10">
@@ -2631,7 +2979,7 @@
         <v>1.5625E-2</v>
       </c>
       <c r="D87" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E87" s="15"/>
@@ -2639,13 +2987,13 @@
         <v>0</v>
       </c>
       <c r="G87">
-        <f t="shared" si="15"/>
+        <f>SUM(Number_of_Obs-F87)</f>
         <v>30</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="B88" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1.7263349150062191E-4</v>
       </c>
       <c r="C88" s="10">
@@ -2653,7 +3001,7 @@
         <v>7.8125E-3</v>
       </c>
       <c r="D88" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E88" s="15"/>
@@ -2661,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="G88">
-        <f t="shared" si="15"/>
+        <f>SUM(Number_of_Obs-F88)</f>
         <v>30</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="B89" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1.7263349150062191E-4</v>
       </c>
       <c r="C89" s="10">
@@ -2675,7 +3023,7 @@
         <v>3.90625E-3</v>
       </c>
       <c r="D89" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E89" s="15"/>
@@ -2683,13 +3031,13 @@
         <v>0</v>
       </c>
       <c r="G89">
-        <f t="shared" si="15"/>
+        <f>SUM(Number_of_Obs-F89)</f>
         <v>30</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="B90" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1.7263349150062191E-4</v>
       </c>
       <c r="C90" s="10">
@@ -2697,7 +3045,7 @@
         <v>1.953125E-3</v>
       </c>
       <c r="D90" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E90" s="15"/>
@@ -2705,13 +3053,13 @@
         <v>0</v>
       </c>
       <c r="G90">
-        <f t="shared" si="15"/>
+        <f>SUM(Number_of_Obs-F90)</f>
         <v>30</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="B91" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1.7263349150062191E-4</v>
       </c>
       <c r="C91" s="10">
@@ -2719,7 +3067,7 @@
         <v>9.765625E-4</v>
       </c>
       <c r="D91" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E91" s="15"/>
@@ -2727,14 +3075,14 @@
         <v>0</v>
       </c>
       <c r="G91">
-        <f t="shared" si="15"/>
+        <f>SUM(Number_of_Obs-F91)</f>
         <v>30</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="16"/>
       <c r="B92" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1.7263349150062191E-4</v>
       </c>
       <c r="C92" s="11">
@@ -2742,7 +3090,7 @@
         <v>4.8828125E-4</v>
       </c>
       <c r="D92" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E92" s="15"/>
@@ -2750,13 +3098,13 @@
         <v>0</v>
       </c>
       <c r="G92">
-        <f t="shared" si="15"/>
+        <f>SUM(Number_of_Obs-F92)</f>
         <v>30</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B93" s="5">
         <f>1/(POWER(2,13))</f>
@@ -2767,7 +3115,7 @@
         <v>3.125E-2</v>
       </c>
       <c r="D93" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E93" s="15"/>
@@ -2775,13 +3123,13 @@
         <v>0</v>
       </c>
       <c r="G93">
-        <f t="shared" si="15"/>
+        <f>SUM(Number_of_Obs-F93)</f>
         <v>30</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="B94" s="6">
-        <f t="shared" ref="B94:B99" si="20">1/(POWER(2,13))</f>
+        <f t="shared" ref="B94:B99" si="18">1/(POWER(2,13))</f>
         <v>1.220703125E-4</v>
       </c>
       <c r="C94" s="10">
@@ -2789,7 +3137,7 @@
         <v>1.5625E-2</v>
       </c>
       <c r="D94" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E94" s="15"/>
@@ -2797,13 +3145,13 @@
         <v>0</v>
       </c>
       <c r="G94">
-        <f t="shared" si="15"/>
+        <f>SUM(Number_of_Obs-F94)</f>
         <v>30</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="B95" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>1.220703125E-4</v>
       </c>
       <c r="C95" s="10">
@@ -2811,7 +3159,7 @@
         <v>7.8125E-3</v>
       </c>
       <c r="D95" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E95" s="15"/>
@@ -2819,13 +3167,13 @@
         <v>0</v>
       </c>
       <c r="G95">
-        <f t="shared" si="15"/>
+        <f>SUM(Number_of_Obs-F95)</f>
         <v>30</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="B96" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>1.220703125E-4</v>
       </c>
       <c r="C96" s="10">
@@ -2833,7 +3181,7 @@
         <v>3.90625E-3</v>
       </c>
       <c r="D96" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E96" s="15"/>
@@ -2841,13 +3189,13 @@
         <v>0</v>
       </c>
       <c r="G96">
-        <f t="shared" si="15"/>
+        <f>SUM(Number_of_Obs-F96)</f>
         <v>30</v>
       </c>
     </row>
     <row r="97" spans="2:7">
       <c r="B97" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>1.220703125E-4</v>
       </c>
       <c r="C97" s="10">
@@ -2855,7 +3203,7 @@
         <v>1.953125E-3</v>
       </c>
       <c r="D97" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E97" s="15"/>
@@ -2863,13 +3211,13 @@
         <v>0</v>
       </c>
       <c r="G97">
-        <f t="shared" si="15"/>
+        <f>SUM(Number_of_Obs-F97)</f>
         <v>30</v>
       </c>
     </row>
     <row r="98" spans="2:7">
       <c r="B98" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>1.220703125E-4</v>
       </c>
       <c r="C98" s="10">
@@ -2877,7 +3225,7 @@
         <v>9.765625E-4</v>
       </c>
       <c r="D98" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E98" s="15"/>
@@ -2885,13 +3233,13 @@
         <v>0</v>
       </c>
       <c r="G98">
-        <f t="shared" si="15"/>
+        <f>SUM(Number_of_Obs-F98)</f>
         <v>30</v>
       </c>
     </row>
     <row r="99" spans="2:7">
       <c r="B99" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>1.220703125E-4</v>
       </c>
       <c r="C99" s="11">
@@ -2899,7 +3247,7 @@
         <v>4.8828125E-4</v>
       </c>
       <c r="D99" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E99" s="15"/>
@@ -2907,12 +3255,13 @@
         <v>0</v>
       </c>
       <c r="G99">
-        <f t="shared" si="15"/>
+        <f>SUM(Number_of_Obs-F99)</f>
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Cross-Validation SVM/cross-validation template.xlsx
+++ b/Cross-Validation SVM/cross-validation template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DIT\MaxStaffForDIT\4thYear\FinalYearProject\BehaviouralBiometricsPhoneLock\FYP\Cross-Validation SVM\2 - OnlyTapData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DIT\MaxStaffForDIT\4thYear\FinalYearProject\BehaviouralBiometricsPhoneLock\FYP\Cross-Validation SVM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -436,9 +436,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2828925" cy="3192412"/>
     <xdr:sp macro="" textlink="">
@@ -448,7 +448,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9153525" y="104775"/>
+          <a:off x="9163050" y="685800"/>
           <a:ext cx="2828925" cy="3192412"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <f>SUM(Number_of_Obs-F2)</f>
+        <f t="shared" ref="G2:G33" si="0">SUM(Number_of_Obs-F2)</f>
         <v>30</v>
       </c>
       <c r="J2" s="18">
@@ -1075,7 +1075,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" thickTop="1">
       <c r="B3" s="6">
-        <f t="shared" ref="B3:B8" si="0">1/(POWER(2,1))</f>
+        <f t="shared" ref="B3:B8" si="1">1/(POWER(2,1))</f>
         <v>0.5</v>
       </c>
       <c r="C3" s="10">
@@ -1091,13 +1091,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <f>SUM(Number_of_Obs-F3)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="B4" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="C4" s="10">
@@ -1105,7 +1105,7 @@
         <v>7.8125E-3</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D8" si="1">(F4*100)/30</f>
+        <f t="shared" ref="D4:D8" si="2">(F4*100)/30</f>
         <v>0</v>
       </c>
       <c r="E4" s="15"/>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <f>SUM(Number_of_Obs-F4)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="B5" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="C5" s="10">
@@ -1127,7 +1127,7 @@
         <v>3.90625E-3</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E5" s="15"/>
@@ -1135,13 +1135,13 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <f>SUM(Number_of_Obs-F5)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="B6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="C6" s="10">
@@ -1149,7 +1149,7 @@
         <v>1.953125E-3</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E6" s="15"/>
@@ -1157,13 +1157,13 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <f>SUM(Number_of_Obs-F6)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="B7" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="C7" s="10">
@@ -1171,7 +1171,7 @@
         <v>9.765625E-4</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E7" s="15"/>
@@ -1179,14 +1179,14 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <f>SUM(Number_of_Obs-F7)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="16"/>
       <c r="B8" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="C8" s="11">
@@ -1194,7 +1194,7 @@
         <v>4.8828125E-4</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E8" s="15"/>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <f>SUM(Number_of_Obs-F8)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
@@ -1227,13 +1227,13 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <f>SUM(Number_of_Obs-F9)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="B10" s="6">
-        <f t="shared" ref="B10:B11" si="2">1/(POWER(2,2))</f>
+        <f t="shared" ref="B10:B11" si="3">1/(POWER(2,2))</f>
         <v>0.25</v>
       </c>
       <c r="C10" s="10">
@@ -1241,7 +1241,7 @@
         <v>1.5625E-2</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" ref="D10:D73" si="3">(F10*100)/30</f>
+        <f t="shared" ref="D10:D73" si="4">(F10*100)/30</f>
         <v>0</v>
       </c>
       <c r="E10" s="15"/>
@@ -1249,13 +1249,13 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <f>SUM(Number_of_Obs-F10)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="B11" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
       <c r="C11" s="10">
@@ -1263,7 +1263,7 @@
         <v>7.8125E-3</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E11" s="15"/>
@@ -1271,13 +1271,13 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <f>SUM(Number_of_Obs-F11)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="B12" s="6">
-        <f t="shared" ref="B12:B15" si="4">1/(POWER(2,2))</f>
+        <f t="shared" ref="B12:B15" si="5">1/(POWER(2,2))</f>
         <v>0.25</v>
       </c>
       <c r="C12" s="10">
@@ -1285,7 +1285,7 @@
         <v>3.90625E-3</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E12" s="15"/>
@@ -1293,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <f>SUM(Number_of_Obs-F12)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.25</v>
       </c>
       <c r="C13" s="10">
@@ -1307,7 +1307,7 @@
         <v>1.953125E-3</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E13" s="15"/>
@@ -1315,13 +1315,13 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <f>SUM(Number_of_Obs-F13)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="B14" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.25</v>
       </c>
       <c r="C14" s="10">
@@ -1329,7 +1329,7 @@
         <v>9.765625E-4</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E14" s="15"/>
@@ -1337,14 +1337,14 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <f>SUM(Number_of_Obs-F14)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="16"/>
       <c r="B15" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.25</v>
       </c>
       <c r="C15" s="11">
@@ -1352,7 +1352,7 @@
         <v>4.8828125E-4</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E15" s="15"/>
@@ -1360,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <f>SUM(Number_of_Obs-F15)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
@@ -1377,7 +1377,7 @@
         <v>3.125E-2</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E16" s="15"/>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <f>SUM(Number_of_Obs-F16)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="B17" s="6">
-        <f t="shared" ref="B17:B22" si="5">1/(POWER(2,3))</f>
+        <f t="shared" ref="B17:B22" si="6">1/(POWER(2,3))</f>
         <v>0.125</v>
       </c>
       <c r="C17" s="10">
@@ -1399,7 +1399,7 @@
         <v>1.5625E-2</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E17" s="15"/>
@@ -1407,13 +1407,13 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <f>SUM(Number_of_Obs-F17)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="B18" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.125</v>
       </c>
       <c r="C18" s="10">
@@ -1421,7 +1421,7 @@
         <v>7.8125E-3</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E18" s="15"/>
@@ -1429,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <f>SUM(Number_of_Obs-F18)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="B19" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.125</v>
       </c>
       <c r="C19" s="10">
@@ -1443,7 +1443,7 @@
         <v>3.90625E-3</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E19" s="15"/>
@@ -1451,13 +1451,13 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <f>SUM(Number_of_Obs-F19)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="B20" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.125</v>
       </c>
       <c r="C20" s="10">
@@ -1465,7 +1465,7 @@
         <v>1.953125E-3</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E20" s="15"/>
@@ -1473,13 +1473,13 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <f>SUM(Number_of_Obs-F20)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="B21" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.125</v>
       </c>
       <c r="C21" s="10">
@@ -1487,7 +1487,7 @@
         <v>9.765625E-4</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E21" s="15"/>
@@ -1495,14 +1495,14 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <f>SUM(Number_of_Obs-F21)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="16"/>
       <c r="B22" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.125</v>
       </c>
       <c r="C22" s="11">
@@ -1510,7 +1510,7 @@
         <v>4.8828125E-4</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E22" s="15"/>
@@ -1518,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <f>SUM(Number_of_Obs-F22)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
@@ -1535,7 +1535,7 @@
         <v>3.125E-2</v>
       </c>
       <c r="D23" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E23" s="15"/>
@@ -1543,13 +1543,13 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <f>SUM(Number_of_Obs-F23)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="B24" s="6">
-        <f t="shared" ref="B24:B29" si="6">1/(POWER(2,4))</f>
+        <f t="shared" ref="B24:B29" si="7">1/(POWER(2,4))</f>
         <v>6.25E-2</v>
       </c>
       <c r="C24" s="10">
@@ -1557,7 +1557,7 @@
         <v>1.5625E-2</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E24" s="15"/>
@@ -1565,13 +1565,13 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <f>SUM(Number_of_Obs-F24)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="B25" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.25E-2</v>
       </c>
       <c r="C25" s="10">
@@ -1579,7 +1579,7 @@
         <v>7.8125E-3</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E25" s="15"/>
@@ -1587,13 +1587,13 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <f>SUM(Number_of_Obs-F25)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="B26" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.25E-2</v>
       </c>
       <c r="C26" s="10">
@@ -1601,7 +1601,7 @@
         <v>3.90625E-3</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E26" s="15"/>
@@ -1609,13 +1609,13 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <f>SUM(Number_of_Obs-F26)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="B27" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.25E-2</v>
       </c>
       <c r="C27" s="10">
@@ -1623,7 +1623,7 @@
         <v>1.953125E-3</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E27" s="15"/>
@@ -1631,13 +1631,13 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <f>SUM(Number_of_Obs-F27)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="B28" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.25E-2</v>
       </c>
       <c r="C28" s="10">
@@ -1645,7 +1645,7 @@
         <v>9.765625E-4</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E28" s="15"/>
@@ -1653,14 +1653,14 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <f>SUM(Number_of_Obs-F28)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="16"/>
       <c r="B29" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.25E-2</v>
       </c>
       <c r="C29" s="11">
@@ -1668,7 +1668,7 @@
         <v>4.8828125E-4</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E29" s="15"/>
@@ -1676,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <f>SUM(Number_of_Obs-F29)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
@@ -1693,7 +1693,7 @@
         <v>3.125E-2</v>
       </c>
       <c r="D30" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E30" s="15"/>
@@ -1701,13 +1701,13 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <f>SUM(Number_of_Obs-F30)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="B31" s="6">
-        <f t="shared" ref="B31:B36" si="7">1/(POWER(2,5))</f>
+        <f t="shared" ref="B31:B36" si="8">1/(POWER(2,5))</f>
         <v>3.125E-2</v>
       </c>
       <c r="C31" s="10">
@@ -1715,7 +1715,7 @@
         <v>1.5625E-2</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E31" s="15"/>
@@ -1723,13 +1723,13 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <f>SUM(Number_of_Obs-F31)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="B32" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.125E-2</v>
       </c>
       <c r="C32" s="10">
@@ -1737,7 +1737,7 @@
         <v>7.8125E-3</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E32" s="15"/>
@@ -1745,13 +1745,13 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <f>SUM(Number_of_Obs-F32)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="B33" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.125E-2</v>
       </c>
       <c r="C33" s="10">
@@ -1759,7 +1759,7 @@
         <v>3.90625E-3</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E33" s="15"/>
@@ -1767,13 +1767,13 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <f>SUM(Number_of_Obs-F33)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="B34" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.125E-2</v>
       </c>
       <c r="C34" s="10">
@@ -1781,7 +1781,7 @@
         <v>1.953125E-3</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E34" s="15"/>
@@ -1789,13 +1789,13 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <f>SUM(Number_of_Obs-F34)</f>
+        <f t="shared" ref="G34:G65" si="9">SUM(Number_of_Obs-F34)</f>
         <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="B35" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.125E-2</v>
       </c>
       <c r="C35" s="10">
@@ -1803,7 +1803,7 @@
         <v>9.765625E-4</v>
       </c>
       <c r="D35" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E35" s="15"/>
@@ -1811,14 +1811,14 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <f>SUM(Number_of_Obs-F35)</f>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="16"/>
       <c r="B36" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.125E-2</v>
       </c>
       <c r="C36" s="11">
@@ -1826,7 +1826,7 @@
         <v>4.8828125E-4</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E36" s="15"/>
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <f>SUM(Number_of_Obs-F36)</f>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
     </row>
@@ -1851,7 +1851,7 @@
         <v>3.125E-2</v>
       </c>
       <c r="D37" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E37" s="15"/>
@@ -1859,13 +1859,13 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <f>SUM(Number_of_Obs-F37)</f>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="B38" s="6">
-        <f t="shared" ref="B38:B43" si="8">1/(POWER(2,6))</f>
+        <f t="shared" ref="B38:B43" si="10">1/(POWER(2,6))</f>
         <v>1.5625E-2</v>
       </c>
       <c r="C38" s="10">
@@ -1873,7 +1873,7 @@
         <v>1.5625E-2</v>
       </c>
       <c r="D38" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E38" s="15"/>
@@ -1881,13 +1881,13 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <f>SUM(Number_of_Obs-F38)</f>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="B39" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.5625E-2</v>
       </c>
       <c r="C39" s="10">
@@ -1895,7 +1895,7 @@
         <v>7.8125E-3</v>
       </c>
       <c r="D39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E39" s="15"/>
@@ -1903,13 +1903,13 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <f>SUM(Number_of_Obs-F39)</f>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="B40" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.5625E-2</v>
       </c>
       <c r="C40" s="10">
@@ -1917,7 +1917,7 @@
         <v>3.90625E-3</v>
       </c>
       <c r="D40" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E40" s="15"/>
@@ -1925,13 +1925,13 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <f>SUM(Number_of_Obs-F40)</f>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="B41" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.5625E-2</v>
       </c>
       <c r="C41" s="10">
@@ -1939,7 +1939,7 @@
         <v>1.953125E-3</v>
       </c>
       <c r="D41" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E41" s="15"/>
@@ -1947,13 +1947,13 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <f>SUM(Number_of_Obs-F41)</f>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="B42" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.5625E-2</v>
       </c>
       <c r="C42" s="10">
@@ -1961,7 +1961,7 @@
         <v>9.765625E-4</v>
       </c>
       <c r="D42" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E42" s="15"/>
@@ -1969,14 +1969,14 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <f>SUM(Number_of_Obs-F42)</f>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="16"/>
       <c r="B43" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.5625E-2</v>
       </c>
       <c r="C43" s="11">
@@ -1984,7 +1984,7 @@
         <v>4.8828125E-4</v>
       </c>
       <c r="D43" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E43" s="15"/>
@@ -1992,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <f>SUM(Number_of_Obs-F43)</f>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
     </row>
@@ -2009,7 +2009,7 @@
         <v>3.125E-2</v>
       </c>
       <c r="D44" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E44" s="15"/>
@@ -2017,13 +2017,13 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <f>SUM(Number_of_Obs-F44)</f>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="B45" s="6">
-        <f t="shared" ref="B45:B50" si="9">1/(POWER(2,7))</f>
+        <f t="shared" ref="B45:B50" si="11">1/(POWER(2,7))</f>
         <v>7.8125E-3</v>
       </c>
       <c r="C45" s="10">
@@ -2031,7 +2031,7 @@
         <v>1.5625E-2</v>
       </c>
       <c r="D45" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E45" s="15"/>
@@ -2039,13 +2039,13 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <f>SUM(Number_of_Obs-F45)</f>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="B46" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>7.8125E-3</v>
       </c>
       <c r="C46" s="10">
@@ -2053,7 +2053,7 @@
         <v>7.8125E-3</v>
       </c>
       <c r="D46" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E46" s="15"/>
@@ -2061,13 +2061,13 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <f>SUM(Number_of_Obs-F46)</f>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="B47" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>7.8125E-3</v>
       </c>
       <c r="C47" s="10">
@@ -2075,7 +2075,7 @@
         <v>3.90625E-3</v>
       </c>
       <c r="D47" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E47" s="15"/>
@@ -2083,13 +2083,13 @@
         <v>0</v>
       </c>
       <c r="G47">
-        <f>SUM(Number_of_Obs-F47)</f>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="B48" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>7.8125E-3</v>
       </c>
       <c r="C48" s="10">
@@ -2097,7 +2097,7 @@
         <v>1.953125E-3</v>
       </c>
       <c r="D48" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E48" s="15"/>
@@ -2105,13 +2105,13 @@
         <v>0</v>
       </c>
       <c r="G48">
-        <f>SUM(Number_of_Obs-F48)</f>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="B49" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>7.8125E-3</v>
       </c>
       <c r="C49" s="10">
@@ -2119,7 +2119,7 @@
         <v>9.765625E-4</v>
       </c>
       <c r="D49" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E49" s="15"/>
@@ -2127,14 +2127,14 @@
         <v>0</v>
       </c>
       <c r="G49">
-        <f>SUM(Number_of_Obs-F49)</f>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="16"/>
       <c r="B50" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>7.8125E-3</v>
       </c>
       <c r="C50" s="11">
@@ -2142,7 +2142,7 @@
         <v>4.8828125E-4</v>
       </c>
       <c r="D50" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E50" s="15"/>
@@ -2150,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <f>SUM(Number_of_Obs-F50)</f>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
         <v>3.125E-2</v>
       </c>
       <c r="D51" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E51" s="15"/>
@@ -2175,13 +2175,13 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <f>SUM(Number_of_Obs-F51)</f>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="14.25" customHeight="1">
       <c r="B52" s="6">
-        <f t="shared" ref="B52:B53" si="10">1/(POWER(2,8))</f>
+        <f t="shared" ref="B52:B53" si="12">1/(POWER(2,8))</f>
         <v>3.90625E-3</v>
       </c>
       <c r="C52" s="10">
@@ -2189,7 +2189,7 @@
         <v>1.5625E-2</v>
       </c>
       <c r="D52" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E52" s="15"/>
@@ -2197,13 +2197,13 @@
         <v>0</v>
       </c>
       <c r="G52">
-        <f>SUM(Number_of_Obs-F52)</f>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="14.25" customHeight="1">
       <c r="B53" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3.90625E-3</v>
       </c>
       <c r="C53" s="10">
@@ -2211,7 +2211,7 @@
         <v>7.8125E-3</v>
       </c>
       <c r="D53" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E53" s="15"/>
@@ -2219,13 +2219,13 @@
         <v>0</v>
       </c>
       <c r="G53">
-        <f>SUM(Number_of_Obs-F53)</f>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="14.25" customHeight="1">
       <c r="B54" s="6">
-        <f t="shared" ref="B54:B57" si="11">1/(POWER(2,8))</f>
+        <f t="shared" ref="B54:B57" si="13">1/(POWER(2,8))</f>
         <v>3.90625E-3</v>
       </c>
       <c r="C54" s="10">
@@ -2233,7 +2233,7 @@
         <v>3.90625E-3</v>
       </c>
       <c r="D54" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E54" s="15"/>
@@ -2241,13 +2241,13 @@
         <v>0</v>
       </c>
       <c r="G54">
-        <f>SUM(Number_of_Obs-F54)</f>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="14.25" customHeight="1">
       <c r="B55" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3.90625E-3</v>
       </c>
       <c r="C55" s="10">
@@ -2255,7 +2255,7 @@
         <v>1.953125E-3</v>
       </c>
       <c r="D55" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E55" s="15"/>
@@ -2263,13 +2263,13 @@
         <v>0</v>
       </c>
       <c r="G55">
-        <f>SUM(Number_of_Obs-F55)</f>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="14.25" customHeight="1">
       <c r="B56" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3.90625E-3</v>
       </c>
       <c r="C56" s="10">
@@ -2277,7 +2277,7 @@
         <v>9.765625E-4</v>
       </c>
       <c r="D56" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E56" s="15"/>
@@ -2285,14 +2285,14 @@
         <v>0</v>
       </c>
       <c r="G56">
-        <f>SUM(Number_of_Obs-F56)</f>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="14.25" customHeight="1">
       <c r="A57" s="16"/>
       <c r="B57" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3.90625E-3</v>
       </c>
       <c r="C57" s="11">
@@ -2300,7 +2300,7 @@
         <v>4.8828125E-4</v>
       </c>
       <c r="D57" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E57" s="15"/>
@@ -2308,7 +2308,7 @@
         <v>0</v>
       </c>
       <c r="G57">
-        <f>SUM(Number_of_Obs-F57)</f>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
     </row>
@@ -2325,7 +2325,7 @@
         <v>3.125E-2</v>
       </c>
       <c r="D58" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E58" s="15"/>
@@ -2333,13 +2333,13 @@
         <v>0</v>
       </c>
       <c r="G58">
-        <f>SUM(Number_of_Obs-F58)</f>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="B59" s="6">
-        <f t="shared" ref="B59:B64" si="12">1/(POWER(2,9))</f>
+        <f t="shared" ref="B59:B64" si="14">1/(POWER(2,9))</f>
         <v>1.953125E-3</v>
       </c>
       <c r="C59" s="10">
@@ -2347,7 +2347,7 @@
         <v>1.5625E-2</v>
       </c>
       <c r="D59" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E59" s="15"/>
@@ -2355,13 +2355,13 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <f>SUM(Number_of_Obs-F59)</f>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="B60" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.953125E-3</v>
       </c>
       <c r="C60" s="10">
@@ -2369,7 +2369,7 @@
         <v>7.8125E-3</v>
       </c>
       <c r="D60" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E60" s="15"/>
@@ -2377,13 +2377,13 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <f>SUM(Number_of_Obs-F60)</f>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="B61" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.953125E-3</v>
       </c>
       <c r="C61" s="10">
@@ -2391,7 +2391,7 @@
         <v>3.90625E-3</v>
       </c>
       <c r="D61" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E61" s="15"/>
@@ -2399,13 +2399,13 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <f>SUM(Number_of_Obs-F61)</f>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="B62" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.953125E-3</v>
       </c>
       <c r="C62" s="10">
@@ -2413,7 +2413,7 @@
         <v>1.953125E-3</v>
       </c>
       <c r="D62" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E62" s="15"/>
@@ -2421,13 +2421,13 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <f>SUM(Number_of_Obs-F62)</f>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="B63" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.953125E-3</v>
       </c>
       <c r="C63" s="10">
@@ -2435,7 +2435,7 @@
         <v>9.765625E-4</v>
       </c>
       <c r="D63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E63" s="15"/>
@@ -2443,14 +2443,14 @@
         <v>0</v>
       </c>
       <c r="G63">
-        <f>SUM(Number_of_Obs-F63)</f>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="16"/>
       <c r="B64" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.953125E-3</v>
       </c>
       <c r="C64" s="11">
@@ -2458,7 +2458,7 @@
         <v>4.8828125E-4</v>
       </c>
       <c r="D64" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E64" s="15"/>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <f>SUM(Number_of_Obs-F64)</f>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
     </row>
@@ -2483,7 +2483,7 @@
         <v>3.125E-2</v>
       </c>
       <c r="D65" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E65" s="15"/>
@@ -2491,13 +2491,13 @@
         <v>0</v>
       </c>
       <c r="G65">
-        <f>SUM(Number_of_Obs-F65)</f>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="B66" s="6">
-        <f t="shared" ref="B66:B71" si="13">1/(POWER(2,10))</f>
+        <f t="shared" ref="B66:B71" si="15">1/(POWER(2,10))</f>
         <v>9.765625E-4</v>
       </c>
       <c r="C66" s="10">
@@ -2505,7 +2505,7 @@
         <v>1.5625E-2</v>
       </c>
       <c r="D66" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E66" s="15"/>
@@ -2513,13 +2513,13 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <f>SUM(Number_of_Obs-F66)</f>
+        <f t="shared" ref="G66:G97" si="16">SUM(Number_of_Obs-F66)</f>
         <v>30</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="B67" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.765625E-4</v>
       </c>
       <c r="C67" s="10">
@@ -2527,7 +2527,7 @@
         <v>7.8125E-3</v>
       </c>
       <c r="D67" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E67" s="15"/>
@@ -2535,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="G67">
-        <f>SUM(Number_of_Obs-F67)</f>
+        <f t="shared" si="16"/>
         <v>30</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="B68" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.765625E-4</v>
       </c>
       <c r="C68" s="10">
@@ -2549,7 +2549,7 @@
         <v>3.90625E-3</v>
       </c>
       <c r="D68" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E68" s="15"/>
@@ -2557,13 +2557,13 @@
         <v>0</v>
       </c>
       <c r="G68">
-        <f>SUM(Number_of_Obs-F68)</f>
+        <f t="shared" si="16"/>
         <v>30</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="B69" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.765625E-4</v>
       </c>
       <c r="C69" s="10">
@@ -2571,7 +2571,7 @@
         <v>1.953125E-3</v>
       </c>
       <c r="D69" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E69" s="15"/>
@@ -2579,13 +2579,13 @@
         <v>0</v>
       </c>
       <c r="G69">
-        <f>SUM(Number_of_Obs-F69)</f>
+        <f t="shared" si="16"/>
         <v>30</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="B70" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.765625E-4</v>
       </c>
       <c r="C70" s="10">
@@ -2593,7 +2593,7 @@
         <v>9.765625E-4</v>
       </c>
       <c r="D70" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E70" s="15"/>
@@ -2601,14 +2601,14 @@
         <v>0</v>
       </c>
       <c r="G70">
-        <f>SUM(Number_of_Obs-F70)</f>
+        <f t="shared" si="16"/>
         <v>30</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="16"/>
       <c r="B71" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.765625E-4</v>
       </c>
       <c r="C71" s="11">
@@ -2616,7 +2616,7 @@
         <v>4.8828125E-4</v>
       </c>
       <c r="D71" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E71" s="15"/>
@@ -2624,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="G71">
-        <f>SUM(Number_of_Obs-F71)</f>
+        <f t="shared" si="16"/>
         <v>30</v>
       </c>
     </row>
@@ -2641,7 +2641,7 @@
         <v>3.125E-2</v>
       </c>
       <c r="D72" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E72" s="15"/>
@@ -2649,13 +2649,13 @@
         <v>0</v>
       </c>
       <c r="G72">
-        <f>SUM(Number_of_Obs-F72)</f>
+        <f t="shared" si="16"/>
         <v>30</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="B73" s="6">
-        <f t="shared" ref="B73:B78" si="14">1/(POWER(2,11))</f>
+        <f t="shared" ref="B73:B78" si="17">1/(POWER(2,11))</f>
         <v>4.8828125E-4</v>
       </c>
       <c r="C73" s="10">
@@ -2663,7 +2663,7 @@
         <v>1.5625E-2</v>
       </c>
       <c r="D73" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E73" s="15"/>
@@ -2671,13 +2671,13 @@
         <v>0</v>
       </c>
       <c r="G73">
-        <f>SUM(Number_of_Obs-F73)</f>
+        <f t="shared" si="16"/>
         <v>30</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="B74" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>4.8828125E-4</v>
       </c>
       <c r="C74" s="10">
@@ -2685,7 +2685,7 @@
         <v>7.8125E-3</v>
       </c>
       <c r="D74" s="2">
-        <f t="shared" ref="D74:D99" si="15">(F74*100)/30</f>
+        <f t="shared" ref="D74:D99" si="18">(F74*100)/30</f>
         <v>0</v>
       </c>
       <c r="E74" s="15"/>
@@ -2693,13 +2693,13 @@
         <v>0</v>
       </c>
       <c r="G74">
-        <f>SUM(Number_of_Obs-F74)</f>
+        <f t="shared" si="16"/>
         <v>30</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="B75" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>4.8828125E-4</v>
       </c>
       <c r="C75" s="10">
@@ -2707,7 +2707,7 @@
         <v>3.90625E-3</v>
       </c>
       <c r="D75" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="E75" s="15"/>
@@ -2715,13 +2715,13 @@
         <v>0</v>
       </c>
       <c r="G75">
-        <f>SUM(Number_of_Obs-F75)</f>
+        <f t="shared" si="16"/>
         <v>30</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="B76" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>4.8828125E-4</v>
       </c>
       <c r="C76" s="10">
@@ -2729,7 +2729,7 @@
         <v>1.953125E-3</v>
       </c>
       <c r="D76" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="E76" s="15"/>
@@ -2737,13 +2737,13 @@
         <v>0</v>
       </c>
       <c r="G76">
-        <f>SUM(Number_of_Obs-F76)</f>
+        <f t="shared" si="16"/>
         <v>30</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="B77" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>4.8828125E-4</v>
       </c>
       <c r="C77" s="10">
@@ -2751,7 +2751,7 @@
         <v>9.765625E-4</v>
       </c>
       <c r="D77" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="E77" s="15"/>
@@ -2759,14 +2759,14 @@
         <v>0</v>
       </c>
       <c r="G77">
-        <f>SUM(Number_of_Obs-F77)</f>
+        <f t="shared" si="16"/>
         <v>30</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="16"/>
       <c r="B78" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>4.8828125E-4</v>
       </c>
       <c r="C78" s="11">
@@ -2774,7 +2774,7 @@
         <v>4.8828125E-4</v>
       </c>
       <c r="D78" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="E78" s="15"/>
@@ -2782,7 +2782,7 @@
         <v>0</v>
       </c>
       <c r="G78">
-        <f>SUM(Number_of_Obs-F78)</f>
+        <f t="shared" si="16"/>
         <v>30</v>
       </c>
     </row>
@@ -2799,7 +2799,7 @@
         <v>3.125E-2</v>
       </c>
       <c r="D79" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="E79" s="15"/>
@@ -2807,13 +2807,13 @@
         <v>0</v>
       </c>
       <c r="G79">
-        <f>SUM(Number_of_Obs-F79)</f>
+        <f t="shared" si="16"/>
         <v>30</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="B80" s="6">
-        <f t="shared" ref="B80:B85" si="16">1/(POWER(2,12))</f>
+        <f t="shared" ref="B80:B85" si="19">1/(POWER(2,12))</f>
         <v>2.44140625E-4</v>
       </c>
       <c r="C80" s="10">
@@ -2821,7 +2821,7 @@
         <v>1.5625E-2</v>
       </c>
       <c r="D80" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="E80" s="15"/>
@@ -2829,13 +2829,13 @@
         <v>0</v>
       </c>
       <c r="G80">
-        <f>SUM(Number_of_Obs-F80)</f>
+        <f t="shared" si="16"/>
         <v>30</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="B81" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2.44140625E-4</v>
       </c>
       <c r="C81" s="10">
@@ -2843,7 +2843,7 @@
         <v>7.8125E-3</v>
       </c>
       <c r="D81" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="E81" s="15"/>
@@ -2851,13 +2851,13 @@
         <v>0</v>
       </c>
       <c r="G81">
-        <f>SUM(Number_of_Obs-F81)</f>
+        <f t="shared" si="16"/>
         <v>30</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="B82" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2.44140625E-4</v>
       </c>
       <c r="C82" s="10">
@@ -2865,7 +2865,7 @@
         <v>3.90625E-3</v>
       </c>
       <c r="D82" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="E82" s="15"/>
@@ -2873,13 +2873,13 @@
         <v>0</v>
       </c>
       <c r="G82">
-        <f>SUM(Number_of_Obs-F82)</f>
+        <f t="shared" si="16"/>
         <v>30</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="B83" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2.44140625E-4</v>
       </c>
       <c r="C83" s="10">
@@ -2887,7 +2887,7 @@
         <v>1.953125E-3</v>
       </c>
       <c r="D83" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="E83" s="15"/>
@@ -2895,13 +2895,13 @@
         <v>0</v>
       </c>
       <c r="G83">
-        <f>SUM(Number_of_Obs-F83)</f>
+        <f t="shared" si="16"/>
         <v>30</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="B84" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2.44140625E-4</v>
       </c>
       <c r="C84" s="10">
@@ -2909,7 +2909,7 @@
         <v>9.765625E-4</v>
       </c>
       <c r="D84" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="E84" s="15"/>
@@ -2917,14 +2917,14 @@
         <v>0</v>
       </c>
       <c r="G84">
-        <f>SUM(Number_of_Obs-F84)</f>
+        <f t="shared" si="16"/>
         <v>30</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="16"/>
       <c r="B85" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2.44140625E-4</v>
       </c>
       <c r="C85" s="11">
@@ -2932,7 +2932,7 @@
         <v>4.8828125E-4</v>
       </c>
       <c r="D85" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="E85" s="15"/>
@@ -2940,7 +2940,7 @@
         <v>0</v>
       </c>
       <c r="G85">
-        <f>SUM(Number_of_Obs-F85)</f>
+        <f t="shared" si="16"/>
         <v>30</v>
       </c>
     </row>
@@ -2957,7 +2957,7 @@
         <v>3.125E-2</v>
       </c>
       <c r="D86" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="E86" s="15"/>
@@ -2965,13 +2965,13 @@
         <v>0</v>
       </c>
       <c r="G86">
-        <f>SUM(Number_of_Obs-F86)</f>
+        <f t="shared" si="16"/>
         <v>30</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="B87" s="6">
-        <f t="shared" ref="B87:B92" si="17">1/(POWER(2,12.5))</f>
+        <f t="shared" ref="B87:B92" si="20">1/(POWER(2,12.5))</f>
         <v>1.7263349150062191E-4</v>
       </c>
       <c r="C87" s="10">
@@ -2979,7 +2979,7 @@
         <v>1.5625E-2</v>
       </c>
       <c r="D87" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="E87" s="15"/>
@@ -2987,13 +2987,13 @@
         <v>0</v>
       </c>
       <c r="G87">
-        <f>SUM(Number_of_Obs-F87)</f>
+        <f t="shared" si="16"/>
         <v>30</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="B88" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.7263349150062191E-4</v>
       </c>
       <c r="C88" s="10">
@@ -3001,7 +3001,7 @@
         <v>7.8125E-3</v>
       </c>
       <c r="D88" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="E88" s="15"/>
@@ -3009,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="G88">
-        <f>SUM(Number_of_Obs-F88)</f>
+        <f t="shared" si="16"/>
         <v>30</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="B89" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.7263349150062191E-4</v>
       </c>
       <c r="C89" s="10">
@@ -3023,7 +3023,7 @@
         <v>3.90625E-3</v>
       </c>
       <c r="D89" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="E89" s="15"/>
@@ -3031,13 +3031,13 @@
         <v>0</v>
       </c>
       <c r="G89">
-        <f>SUM(Number_of_Obs-F89)</f>
+        <f t="shared" si="16"/>
         <v>30</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="B90" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.7263349150062191E-4</v>
       </c>
       <c r="C90" s="10">
@@ -3045,7 +3045,7 @@
         <v>1.953125E-3</v>
       </c>
       <c r="D90" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="E90" s="15"/>
@@ -3053,13 +3053,13 @@
         <v>0</v>
       </c>
       <c r="G90">
-        <f>SUM(Number_of_Obs-F90)</f>
+        <f t="shared" si="16"/>
         <v>30</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="B91" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.7263349150062191E-4</v>
       </c>
       <c r="C91" s="10">
@@ -3067,7 +3067,7 @@
         <v>9.765625E-4</v>
       </c>
       <c r="D91" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="E91" s="15"/>
@@ -3075,14 +3075,14 @@
         <v>0</v>
       </c>
       <c r="G91">
-        <f>SUM(Number_of_Obs-F91)</f>
+        <f t="shared" si="16"/>
         <v>30</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="16"/>
       <c r="B92" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.7263349150062191E-4</v>
       </c>
       <c r="C92" s="11">
@@ -3090,7 +3090,7 @@
         <v>4.8828125E-4</v>
       </c>
       <c r="D92" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="E92" s="15"/>
@@ -3098,7 +3098,7 @@
         <v>0</v>
       </c>
       <c r="G92">
-        <f>SUM(Number_of_Obs-F92)</f>
+        <f t="shared" si="16"/>
         <v>30</v>
       </c>
     </row>
@@ -3115,7 +3115,7 @@
         <v>3.125E-2</v>
       </c>
       <c r="D93" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="E93" s="15"/>
@@ -3123,13 +3123,13 @@
         <v>0</v>
       </c>
       <c r="G93">
-        <f>SUM(Number_of_Obs-F93)</f>
+        <f t="shared" si="16"/>
         <v>30</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="B94" s="6">
-        <f t="shared" ref="B94:B99" si="18">1/(POWER(2,13))</f>
+        <f t="shared" ref="B94:B99" si="21">1/(POWER(2,13))</f>
         <v>1.220703125E-4</v>
       </c>
       <c r="C94" s="10">
@@ -3137,7 +3137,7 @@
         <v>1.5625E-2</v>
       </c>
       <c r="D94" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="E94" s="15"/>
@@ -3145,13 +3145,13 @@
         <v>0</v>
       </c>
       <c r="G94">
-        <f>SUM(Number_of_Obs-F94)</f>
+        <f t="shared" si="16"/>
         <v>30</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="B95" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.220703125E-4</v>
       </c>
       <c r="C95" s="10">
@@ -3159,7 +3159,7 @@
         <v>7.8125E-3</v>
       </c>
       <c r="D95" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="E95" s="15"/>
@@ -3167,13 +3167,13 @@
         <v>0</v>
       </c>
       <c r="G95">
-        <f>SUM(Number_of_Obs-F95)</f>
+        <f t="shared" si="16"/>
         <v>30</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="B96" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.220703125E-4</v>
       </c>
       <c r="C96" s="10">
@@ -3181,7 +3181,7 @@
         <v>3.90625E-3</v>
       </c>
       <c r="D96" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="E96" s="15"/>
@@ -3189,13 +3189,13 @@
         <v>0</v>
       </c>
       <c r="G96">
-        <f>SUM(Number_of_Obs-F96)</f>
+        <f t="shared" si="16"/>
         <v>30</v>
       </c>
     </row>
     <row r="97" spans="2:7">
       <c r="B97" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.220703125E-4</v>
       </c>
       <c r="C97" s="10">
@@ -3203,7 +3203,7 @@
         <v>1.953125E-3</v>
       </c>
       <c r="D97" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="E97" s="15"/>
@@ -3211,13 +3211,13 @@
         <v>0</v>
       </c>
       <c r="G97">
-        <f>SUM(Number_of_Obs-F97)</f>
+        <f t="shared" si="16"/>
         <v>30</v>
       </c>
     </row>
     <row r="98" spans="2:7">
       <c r="B98" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.220703125E-4</v>
       </c>
       <c r="C98" s="10">
@@ -3225,7 +3225,7 @@
         <v>9.765625E-4</v>
       </c>
       <c r="D98" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="E98" s="15"/>
@@ -3233,13 +3233,13 @@
         <v>0</v>
       </c>
       <c r="G98">
-        <f>SUM(Number_of_Obs-F98)</f>
+        <f t="shared" ref="G98:G129" si="22">SUM(Number_of_Obs-F98)</f>
         <v>30</v>
       </c>
     </row>
     <row r="99" spans="2:7">
       <c r="B99" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.220703125E-4</v>
       </c>
       <c r="C99" s="11">
@@ -3247,7 +3247,7 @@
         <v>4.8828125E-4</v>
       </c>
       <c r="D99" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="E99" s="15"/>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="G99">
-        <f>SUM(Number_of_Obs-F99)</f>
+        <f t="shared" si="22"/>
         <v>30</v>
       </c>
     </row>
